--- a/INVENTARIOS TIENDA/14-07-2022/39.UA_LEB_RET3.xlsx
+++ b/INVENTARIOS TIENDA/14-07-2022/39.UA_LEB_RET3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,20 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -105,6 +115,39 @@
     <t>JN40M813-20002</t>
   </si>
   <si>
+    <t>BOTIN JORDAN RETRO 3 NEGRO</t>
+  </si>
+  <si>
+    <t>CALZADO</t>
+  </si>
+  <si>
+    <t>CABALLERO</t>
+  </si>
+  <si>
+    <t>ZAPATO</t>
+  </si>
+  <si>
+    <t>DEPORTIVO</t>
+  </si>
+  <si>
+    <t>BOTIN</t>
+  </si>
+  <si>
+    <t>RETRO 3</t>
+  </si>
+  <si>
+    <t>NEGRO</t>
+  </si>
+  <si>
+    <t>JORDAN</t>
+  </si>
+  <si>
+    <t>0005700003577CI11</t>
+  </si>
+  <si>
+    <t>M813</t>
+  </si>
+  <si>
     <t>JN41M813-20002</t>
   </si>
   <si>
@@ -120,42 +163,15 @@
     <t>JN45M813-20002</t>
   </si>
   <si>
-    <t>BOTIN JORDAN RETRO 3 NEGRO</t>
-  </si>
-  <si>
-    <t>CALZADO</t>
-  </si>
-  <si>
-    <t>CABALLERO</t>
-  </si>
-  <si>
-    <t>ZAPATO</t>
-  </si>
-  <si>
-    <t>DEPORTIVO</t>
-  </si>
-  <si>
-    <t>BOTIN</t>
-  </si>
-  <si>
-    <t>RETRO 3</t>
-  </si>
-  <si>
-    <t>NEGRO</t>
-  </si>
-  <si>
-    <t>JORDAN</t>
-  </si>
-  <si>
-    <t>0005700003577CI11</t>
-  </si>
-  <si>
-    <t>M813</t>
-  </si>
-  <si>
     <t>JNG40M813-40004</t>
   </si>
   <si>
+    <t>BOTIN JORDAN RETRO 3 NEGRO GRIS</t>
+  </si>
+  <si>
+    <t>NEGRO GRIS</t>
+  </si>
+  <si>
     <t>JNG41M813-40004</t>
   </si>
   <si>
@@ -171,15 +187,27 @@
     <t>JNG45M813-40004</t>
   </si>
   <si>
-    <t>BOTIN JORDAN RETRO 3 NEGRO GRIS</t>
-  </si>
-  <si>
-    <t>NEGRO GRIS</t>
-  </si>
-  <si>
     <t>UBA40K157-10001</t>
   </si>
   <si>
+    <t>ZAPATO UNDER ARMOUR HOVR BLANCO AZUL MARIÑO</t>
+  </si>
+  <si>
+    <t>CORTE BAJO</t>
+  </si>
+  <si>
+    <t>HOVR</t>
+  </si>
+  <si>
+    <t>BLANCO AZUL MARIÑO</t>
+  </si>
+  <si>
+    <t>UNDER ARMOUR</t>
+  </si>
+  <si>
+    <t>K157</t>
+  </si>
+  <si>
     <t>UBA41K157-10001</t>
   </si>
   <si>
@@ -189,24 +217,15 @@
     <t>UBA43K157-10001</t>
   </si>
   <si>
-    <t>CORTE BAJO</t>
-  </si>
-  <si>
-    <t>BLANCO AZUL MARIÑO</t>
-  </si>
-  <si>
-    <t>ZAPATO UNDER ARMOUR HOVR BLANCO AZUL MARIÑO</t>
-  </si>
-  <si>
-    <t>HOVR</t>
-  </si>
-  <si>
-    <t>K157</t>
-  </si>
-  <si>
     <t>UBV40K157-20002</t>
   </si>
   <si>
+    <t>ZAPATO UNDER ARMOUR HOVR BLANCO VERDE AGUA</t>
+  </si>
+  <si>
+    <t>BLANCO VERDE AGUA</t>
+  </si>
+  <si>
     <t>UBV41K157-20002</t>
   </si>
   <si>
@@ -219,18 +238,12 @@
     <t>UBV44K157-20002</t>
   </si>
   <si>
-    <t>ZAPATO UNDER ARMOUR HOVR BLANCO VERDE AGUA</t>
-  </si>
-  <si>
-    <t>BLANCO VERDE AGUA</t>
-  </si>
-  <si>
-    <t>UNDER ARMOUR</t>
-  </si>
-  <si>
     <t>UN40K157-30003</t>
   </si>
   <si>
+    <t>ZAPATO UNDER ARMOUR HOVR NEGRO</t>
+  </si>
+  <si>
     <t>UN41K157-30003</t>
   </si>
   <si>
@@ -243,12 +256,12 @@
     <t>UN44K157-30003</t>
   </si>
   <si>
-    <t>ZAPATO UNDER ARMOUR HOVR NEGRO</t>
-  </si>
-  <si>
     <t>UNG40K157-40004</t>
   </si>
   <si>
+    <t>ZAPATO UNDER ARMOUR HOVR NEGRO GRIS</t>
+  </si>
+  <si>
     <t>UNG41K157-40004</t>
   </si>
   <si>
@@ -261,12 +274,15 @@
     <t>UNG44K157-40004</t>
   </si>
   <si>
-    <t>ZAPATO UNDER ARMOUR HOVR NEGRO GRIS</t>
-  </si>
-  <si>
     <t>UNB40K157-50005</t>
   </si>
   <si>
+    <t xml:space="preserve">ZAPATO UNDER ARMOUR HOVR NEGRO BLANCO </t>
+  </si>
+  <si>
+    <t>NEGRO BLANCO</t>
+  </si>
+  <si>
     <t>UNB41K157-50005</t>
   </si>
   <si>
@@ -279,15 +295,15 @@
     <t>UNB44K157-50005</t>
   </si>
   <si>
-    <t xml:space="preserve">ZAPATO UNDER ARMOUR HOVR NEGRO BLANCO </t>
-  </si>
-  <si>
-    <t>NEGRO BLANCO</t>
-  </si>
-  <si>
     <t>UGP40K157-60006</t>
   </si>
   <si>
+    <t>ZAPATO UNDER ARMOUR HOVR GRIS PLOMO</t>
+  </si>
+  <si>
+    <t>GRIS PLOMO</t>
+  </si>
+  <si>
     <t>UGP41K157-60006</t>
   </si>
   <si>
@@ -300,15 +316,24 @@
     <t>UGP44K157-60006</t>
   </si>
   <si>
-    <t>ZAPATO UNDER ARMOUR HOVR GRIS PLOMO</t>
-  </si>
-  <si>
-    <t>GRIS PLOMO</t>
-  </si>
-  <si>
     <t>NNV41K105-10001</t>
   </si>
   <si>
+    <t>BOTIN LEBRON AMBASSADOR NEGRO VERDE</t>
+  </si>
+  <si>
+    <t>AMBASSADOR</t>
+  </si>
+  <si>
+    <t>NEGRO VERDE</t>
+  </si>
+  <si>
+    <t>NIKE</t>
+  </si>
+  <si>
+    <t>K105</t>
+  </si>
+  <si>
     <t>NNV42K105-10001</t>
   </si>
   <si>
@@ -321,24 +346,12 @@
     <t>NNV45K105-10001</t>
   </si>
   <si>
-    <t>BOTIN LEBRON AMBASSADOR NEGRO VERDE</t>
-  </si>
-  <si>
-    <t>AMBASSADOR</t>
-  </si>
-  <si>
-    <t>NEGRO VERDE</t>
-  </si>
-  <si>
-    <t>NIKE</t>
-  </si>
-  <si>
-    <t>K105</t>
-  </si>
-  <si>
     <t>NN40K105-20002</t>
   </si>
   <si>
+    <t xml:space="preserve">BOTIN LEBRON AMBASSADOR NEGRO </t>
+  </si>
+  <si>
     <t>NN41K105-20002</t>
   </si>
   <si>
@@ -354,12 +367,15 @@
     <t>NN45K105-20002</t>
   </si>
   <si>
-    <t xml:space="preserve">BOTIN LEBRON AMBASSADOR NEGRO </t>
-  </si>
-  <si>
     <t>NGN40K105-30003</t>
   </si>
   <si>
+    <t xml:space="preserve">BOTIN LEBRON AMBASSADOR GRIS NEGRO </t>
+  </si>
+  <si>
+    <t>GRIS NEGRO</t>
+  </si>
+  <si>
     <t>NGN41K105-30003</t>
   </si>
   <si>
@@ -373,19 +389,13 @@
   </si>
   <si>
     <t>NGN45K105-30003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTIN LEBRON AMBASSADOR GRIS NEGRO </t>
-  </si>
-  <si>
-    <t>GRIS NEGRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,14 +458,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -475,7 +484,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -777,7 +786,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.7109375" bestFit="1" customWidth="1"/>
@@ -785,7 +794,7 @@
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -865,39 +874,39 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="H2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
       </c>
       <c r="J2">
         <v>40</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -909,7 +918,7 @@
         <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -921,42 +930,42 @@
         <v>5</v>
       </c>
       <c r="Z2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s">
-        <v>38</v>
       </c>
       <c r="J3">
         <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -968,7 +977,7 @@
         <v>55</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -980,42 +989,42 @@
         <v>5</v>
       </c>
       <c r="Z3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
       </c>
       <c r="J4">
         <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -1027,7 +1036,7 @@
         <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1039,42 +1048,42 @@
         <v>5</v>
       </c>
       <c r="Z4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" t="s">
+      <c r="H5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" t="s">
+      <c r="I5" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
-        <v>38</v>
       </c>
       <c r="J5">
         <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1086,54 +1095,54 @@
         <v>55</v>
       </c>
       <c r="V5" t="s">
+        <v>35</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>25998807</v>
+      </c>
+      <c r="Y5">
+        <v>5</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
         <v>40</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>25998807</v>
-      </c>
-      <c r="Y5">
-        <v>5</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s">
-        <v>38</v>
       </c>
       <c r="J6">
         <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -1145,7 +1154,7 @@
         <v>55</v>
       </c>
       <c r="V6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1157,42 +1166,42 @@
         <v>5</v>
       </c>
       <c r="Z6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" t="s">
-        <v>38</v>
       </c>
       <c r="J7">
         <v>45</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -1204,7 +1213,7 @@
         <v>55</v>
       </c>
       <c r="V7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1216,42 +1225,42 @@
         <v>5</v>
       </c>
       <c r="Z7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>40</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1263,7 +1272,7 @@
         <v>55</v>
       </c>
       <c r="V8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1275,42 +1284,42 @@
         <v>5</v>
       </c>
       <c r="Z8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-      <c r="B9" t="s">
-        <v>48</v>
-      </c>
       <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1322,7 +1331,7 @@
         <v>55</v>
       </c>
       <c r="V9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1334,42 +1343,42 @@
         <v>5</v>
       </c>
       <c r="Z9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>49</v>
       </c>
       <c r="J10">
         <v>42</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -1381,7 +1390,7 @@
         <v>55</v>
       </c>
       <c r="V10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -1393,42 +1402,42 @@
         <v>5</v>
       </c>
       <c r="Z10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>37</v>
-      </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>43</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1440,7 +1449,7 @@
         <v>55</v>
       </c>
       <c r="V11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1452,42 +1461,42 @@
         <v>5</v>
       </c>
       <c r="Z11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" t="s">
-        <v>37</v>
-      </c>
       <c r="I12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>44</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>2</v>
@@ -1499,7 +1508,7 @@
         <v>55</v>
       </c>
       <c r="V12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W12">
         <v>1</v>
@@ -1511,42 +1520,42 @@
         <v>5</v>
       </c>
       <c r="Z12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" t="s">
-        <v>37</v>
-      </c>
       <c r="I13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>45</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -1558,7 +1567,7 @@
         <v>55</v>
       </c>
       <c r="V13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W13">
         <v>1</v>
@@ -1570,42 +1579,42 @@
         <v>5</v>
       </c>
       <c r="Z13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
         <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" t="s">
+        <v>53</v>
+      </c>
+      <c r="I14" t="s">
         <v>54</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" t="s">
-        <v>55</v>
       </c>
       <c r="J14">
         <v>40</v>
       </c>
       <c r="K14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N14">
         <v>2</v>
@@ -1617,7 +1626,7 @@
         <v>65</v>
       </c>
       <c r="V14" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W14">
         <v>1</v>
@@ -1629,42 +1638,42 @@
         <v>5</v>
       </c>
       <c r="Z14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s">
         <v>51</v>
       </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" t="s">
         <v>54</v>
-      </c>
-      <c r="H15" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
       </c>
       <c r="J15">
         <v>41</v>
       </c>
       <c r="K15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -1676,7 +1685,7 @@
         <v>65</v>
       </c>
       <c r="V15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -1688,42 +1697,42 @@
         <v>5</v>
       </c>
       <c r="Z15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
       </c>
       <c r="J16">
         <v>42</v>
       </c>
       <c r="K16" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1735,7 +1744,7 @@
         <v>65</v>
       </c>
       <c r="V16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W16">
         <v>1</v>
@@ -1747,42 +1756,42 @@
         <v>5</v>
       </c>
       <c r="Z16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
         <v>54</v>
-      </c>
-      <c r="H17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
       </c>
       <c r="J17">
         <v>43</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1794,7 +1803,7 @@
         <v>65</v>
       </c>
       <c r="V17" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W17">
         <v>1</v>
@@ -1806,42 +1815,42 @@
         <v>5</v>
       </c>
       <c r="Z17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J18">
         <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N18">
         <v>2</v>
@@ -1853,7 +1862,7 @@
         <v>65</v>
       </c>
       <c r="V18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W18">
         <v>1</v>
@@ -1865,42 +1874,42 @@
         <v>5</v>
       </c>
       <c r="Z18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J19">
         <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1912,7 +1921,7 @@
         <v>65</v>
       </c>
       <c r="V19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W19">
         <v>1</v>
@@ -1924,42 +1933,42 @@
         <v>5</v>
       </c>
       <c r="Z19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
-        <v>64</v>
-      </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J20">
         <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1971,7 +1980,7 @@
         <v>65</v>
       </c>
       <c r="V20" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W20">
         <v>1</v>
@@ -1983,42 +1992,42 @@
         <v>5</v>
       </c>
       <c r="Z20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" t="s">
+        <v>53</v>
+      </c>
+      <c r="I21" t="s">
         <v>62</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" t="s">
-        <v>65</v>
       </c>
       <c r="J21">
         <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -2030,7 +2039,7 @@
         <v>65</v>
       </c>
       <c r="V21" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -2042,42 +2051,42 @@
         <v>5</v>
       </c>
       <c r="Z21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J22">
         <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -2089,7 +2098,7 @@
         <v>65</v>
       </c>
       <c r="V22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -2101,42 +2110,42 @@
         <v>5</v>
       </c>
       <c r="Z22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
         <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
         <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" t="s">
-        <v>38</v>
       </c>
       <c r="J23">
         <v>40</v>
       </c>
       <c r="K23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -2148,7 +2157,7 @@
         <v>65</v>
       </c>
       <c r="V23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -2160,42 +2169,42 @@
         <v>5</v>
       </c>
       <c r="Z23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
         <v>68</v>
       </c>
-      <c r="B24" t="s">
-        <v>72</v>
-      </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" t="s">
         <v>33</v>
-      </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" t="s">
-        <v>38</v>
       </c>
       <c r="J24">
         <v>41</v>
       </c>
       <c r="K24" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -2207,7 +2216,7 @@
         <v>65</v>
       </c>
       <c r="V24" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W24">
         <v>1</v>
@@ -2219,42 +2228,42 @@
         <v>5</v>
       </c>
       <c r="Z24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I25" t="s">
         <v>33</v>
-      </c>
-      <c r="E25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" t="s">
-        <v>38</v>
       </c>
       <c r="J25">
         <v>42</v>
       </c>
       <c r="K25" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -2266,7 +2275,7 @@
         <v>65</v>
       </c>
       <c r="V25" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W25">
         <v>1</v>
@@ -2278,42 +2287,42 @@
         <v>5</v>
       </c>
       <c r="Z25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I26" t="s">
         <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" t="s">
-        <v>38</v>
       </c>
       <c r="J26">
         <v>43</v>
       </c>
       <c r="K26" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -2325,7 +2334,7 @@
         <v>65</v>
       </c>
       <c r="V26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W26">
         <v>1</v>
@@ -2337,42 +2346,42 @@
         <v>5</v>
       </c>
       <c r="Z26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" t="s">
+        <v>53</v>
+      </c>
+      <c r="I27" t="s">
         <v>33</v>
-      </c>
-      <c r="E27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" t="s">
-        <v>38</v>
       </c>
       <c r="J27">
         <v>44</v>
       </c>
       <c r="K27" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2384,7 +2393,7 @@
         <v>65</v>
       </c>
       <c r="V27" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W27">
         <v>1</v>
@@ -2396,42 +2405,42 @@
         <v>5</v>
       </c>
       <c r="Z27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
         <v>73</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>40</v>
       </c>
       <c r="K28" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N28">
         <v>2</v>
@@ -2443,7 +2452,7 @@
         <v>65</v>
       </c>
       <c r="V28" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W28">
         <v>1</v>
@@ -2455,42 +2464,42 @@
         <v>5</v>
       </c>
       <c r="Z28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B29" t="s">
-        <v>78</v>
-      </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H29" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>41</v>
       </c>
       <c r="K29" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2502,7 +2511,7 @@
         <v>65</v>
       </c>
       <c r="V29" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W29">
         <v>1</v>
@@ -2514,42 +2523,42 @@
         <v>5</v>
       </c>
       <c r="Z29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J30">
         <v>42</v>
       </c>
       <c r="K30" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -2561,7 +2570,7 @@
         <v>65</v>
       </c>
       <c r="V30" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W30">
         <v>1</v>
@@ -2573,42 +2582,42 @@
         <v>5</v>
       </c>
       <c r="Z30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H31" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>43</v>
       </c>
       <c r="K31" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -2620,7 +2629,7 @@
         <v>65</v>
       </c>
       <c r="V31" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W31">
         <v>1</v>
@@ -2632,42 +2641,42 @@
         <v>5</v>
       </c>
       <c r="Z31" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H32" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>44</v>
       </c>
       <c r="K32" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2679,7 +2688,7 @@
         <v>65</v>
       </c>
       <c r="V32" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W32">
         <v>1</v>
@@ -2691,42 +2700,42 @@
         <v>5</v>
       </c>
       <c r="Z32" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
         <v>79</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H33" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J33">
         <v>40</v>
       </c>
       <c r="K33" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2738,7 +2747,7 @@
         <v>65</v>
       </c>
       <c r="V33" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W33">
         <v>1</v>
@@ -2750,42 +2759,42 @@
         <v>5</v>
       </c>
       <c r="Z33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
-        <v>84</v>
-      </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I34" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J34">
         <v>41</v>
       </c>
       <c r="K34" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2797,7 +2806,7 @@
         <v>65</v>
       </c>
       <c r="V34" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W34">
         <v>1</v>
@@ -2809,42 +2818,42 @@
         <v>5</v>
       </c>
       <c r="Z34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" t="s">
+        <v>53</v>
+      </c>
+      <c r="I35" t="s">
         <v>81</v>
-      </c>
-      <c r="B35" t="s">
-        <v>84</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>54</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" t="s">
-        <v>85</v>
       </c>
       <c r="J35">
         <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2856,7 +2865,7 @@
         <v>65</v>
       </c>
       <c r="V35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W35">
         <v>1</v>
@@ -2868,42 +2877,42 @@
         <v>5</v>
       </c>
       <c r="Z35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H36" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J36">
         <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -2915,7 +2924,7 @@
         <v>65</v>
       </c>
       <c r="V36" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W36">
         <v>1</v>
@@ -2927,42 +2936,42 @@
         <v>5</v>
       </c>
       <c r="Z36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J37">
         <v>44</v>
       </c>
       <c r="K37" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2974,7 +2983,7 @@
         <v>65</v>
       </c>
       <c r="V37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W37">
         <v>1</v>
@@ -2986,42 +2995,42 @@
         <v>5</v>
       </c>
       <c r="Z37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
         <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I38" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J38">
         <v>40</v>
       </c>
       <c r="K38" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N38">
         <v>2</v>
@@ -3033,7 +3042,7 @@
         <v>65</v>
       </c>
       <c r="V38" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -3045,42 +3054,42 @@
         <v>5</v>
       </c>
       <c r="Z38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
-        <v>91</v>
-      </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H39" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I39" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J39">
         <v>41</v>
       </c>
       <c r="K39" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N39">
         <v>3</v>
@@ -3092,7 +3101,7 @@
         <v>65</v>
       </c>
       <c r="V39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W39">
         <v>1</v>
@@ -3104,42 +3113,42 @@
         <v>5</v>
       </c>
       <c r="Z39" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>53</v>
+      </c>
+      <c r="I40" t="s">
         <v>88</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>32</v>
-      </c>
-      <c r="D40" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" t="s">
-        <v>35</v>
-      </c>
-      <c r="G40" t="s">
-        <v>54</v>
-      </c>
-      <c r="H40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I40" t="s">
-        <v>92</v>
       </c>
       <c r="J40">
         <v>42</v>
       </c>
       <c r="K40" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N40">
         <v>3</v>
@@ -3151,7 +3160,7 @@
         <v>65</v>
       </c>
       <c r="V40" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W40">
         <v>1</v>
@@ -3163,42 +3172,42 @@
         <v>5</v>
       </c>
       <c r="Z40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H41" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J41">
         <v>43</v>
       </c>
       <c r="K41" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N41">
         <v>3</v>
@@ -3210,7 +3219,7 @@
         <v>65</v>
       </c>
       <c r="V41" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W41">
         <v>1</v>
@@ -3222,42 +3231,42 @@
         <v>5</v>
       </c>
       <c r="Z41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H42" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="I42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J42">
         <v>44</v>
       </c>
       <c r="K42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -3269,7 +3278,7 @@
         <v>65</v>
       </c>
       <c r="V42" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W42">
         <v>1</v>
@@ -3281,42 +3290,42 @@
         <v>5</v>
       </c>
       <c r="Z42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
         <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E43" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J43">
         <v>41</v>
       </c>
       <c r="K43" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -3328,7 +3337,7 @@
         <v>60</v>
       </c>
       <c r="V43" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W43">
         <v>1</v>
@@ -3340,42 +3349,42 @@
         <v>5</v>
       </c>
       <c r="Z43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
-        <v>98</v>
-      </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H44" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I44" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J44">
         <v>42</v>
       </c>
       <c r="K44" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N44">
         <v>4</v>
@@ -3387,7 +3396,7 @@
         <v>60</v>
       </c>
       <c r="V44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W44">
         <v>1</v>
@@ -3399,42 +3408,42 @@
         <v>5</v>
       </c>
       <c r="Z44" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" t="s">
         <v>95</v>
       </c>
-      <c r="B45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C45" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" t="s">
-        <v>34</v>
-      </c>
-      <c r="F45" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
-      </c>
-      <c r="H45" t="s">
-        <v>99</v>
-      </c>
       <c r="I45" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J45">
         <v>43</v>
       </c>
       <c r="K45" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -3446,7 +3455,7 @@
         <v>60</v>
       </c>
       <c r="V45" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W45">
         <v>1</v>
@@ -3458,42 +3467,42 @@
         <v>5</v>
       </c>
       <c r="Z45" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
+      </c>
+      <c r="I46" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" t="s">
-        <v>34</v>
-      </c>
-      <c r="F46" t="s">
-        <v>35</v>
-      </c>
-      <c r="G46" t="s">
-        <v>36</v>
-      </c>
-      <c r="H46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" t="s">
-        <v>100</v>
       </c>
       <c r="J46">
         <v>44</v>
       </c>
       <c r="K46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N46">
         <v>2</v>
@@ -3505,7 +3514,7 @@
         <v>60</v>
       </c>
       <c r="V46" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W46">
         <v>1</v>
@@ -3517,42 +3526,42 @@
         <v>5</v>
       </c>
       <c r="Z46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
+      <c r="A47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I47" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J47">
         <v>45</v>
       </c>
       <c r="K47" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3564,7 +3573,7 @@
         <v>60</v>
       </c>
       <c r="V47" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W47">
         <v>1</v>
@@ -3576,42 +3585,42 @@
         <v>5</v>
       </c>
       <c r="Z47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
         <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" t="s">
+        <v>29</v>
+      </c>
+      <c r="F48" t="s">
+        <v>30</v>
+      </c>
+      <c r="G48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H48" t="s">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
         <v>33</v>
-      </c>
-      <c r="E48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G48" t="s">
-        <v>36</v>
-      </c>
-      <c r="H48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" t="s">
-        <v>38</v>
       </c>
       <c r="J48">
         <v>40</v>
       </c>
       <c r="K48" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3623,7 +3632,7 @@
         <v>60</v>
       </c>
       <c r="V48" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W48">
         <v>1</v>
@@ -3635,42 +3644,42 @@
         <v>5</v>
       </c>
       <c r="Z48" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" t="s">
+        <v>28</v>
+      </c>
+      <c r="E49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="G49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" t="s">
+        <v>95</v>
+      </c>
+      <c r="I49" t="s">
         <v>33</v>
-      </c>
-      <c r="E49" t="s">
-        <v>34</v>
-      </c>
-      <c r="F49" t="s">
-        <v>35</v>
-      </c>
-      <c r="G49" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" t="s">
-        <v>99</v>
-      </c>
-      <c r="I49" t="s">
-        <v>38</v>
       </c>
       <c r="J49">
         <v>41</v>
       </c>
       <c r="K49" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N49">
         <v>2</v>
@@ -3682,7 +3691,7 @@
         <v>60</v>
       </c>
       <c r="V49" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W49">
         <v>1</v>
@@ -3694,42 +3703,42 @@
         <v>5</v>
       </c>
       <c r="Z49" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" t="s">
+        <v>28</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
+        <v>31</v>
+      </c>
+      <c r="H50" t="s">
+        <v>95</v>
+      </c>
+      <c r="I50" t="s">
         <v>33</v>
-      </c>
-      <c r="E50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G50" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" t="s">
-        <v>99</v>
-      </c>
-      <c r="I50" t="s">
-        <v>38</v>
       </c>
       <c r="J50">
         <v>42</v>
       </c>
       <c r="K50" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -3741,7 +3750,7 @@
         <v>60</v>
       </c>
       <c r="V50" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W50">
         <v>1</v>
@@ -3753,42 +3762,42 @@
         <v>5</v>
       </c>
       <c r="Z50" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="s">
+        <v>30</v>
+      </c>
+      <c r="G51" t="s">
+        <v>31</v>
+      </c>
+      <c r="H51" t="s">
+        <v>95</v>
+      </c>
+      <c r="I51" t="s">
         <v>33</v>
-      </c>
-      <c r="E51" t="s">
-        <v>34</v>
-      </c>
-      <c r="F51" t="s">
-        <v>35</v>
-      </c>
-      <c r="G51" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" t="s">
-        <v>99</v>
-      </c>
-      <c r="I51" t="s">
-        <v>38</v>
       </c>
       <c r="J51">
         <v>43</v>
       </c>
       <c r="K51" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -3800,7 +3809,7 @@
         <v>60</v>
       </c>
       <c r="V51" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W51">
         <v>1</v>
@@ -3812,42 +3821,42 @@
         <v>5</v>
       </c>
       <c r="Z51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+      <c r="G52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" t="s">
+        <v>95</v>
+      </c>
+      <c r="I52" t="s">
         <v>33</v>
-      </c>
-      <c r="E52" t="s">
-        <v>34</v>
-      </c>
-      <c r="F52" t="s">
-        <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" t="s">
-        <v>38</v>
       </c>
       <c r="J52">
         <v>44</v>
       </c>
       <c r="K52" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N52">
         <v>2</v>
@@ -3859,7 +3868,7 @@
         <v>60</v>
       </c>
       <c r="V52" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W52">
         <v>1</v>
@@ -3871,42 +3880,42 @@
         <v>5</v>
       </c>
       <c r="Z52" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H53" t="s">
+        <v>95</v>
+      </c>
+      <c r="I53" t="s">
         <v>33</v>
-      </c>
-      <c r="E53" t="s">
-        <v>34</v>
-      </c>
-      <c r="F53" t="s">
-        <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" t="s">
-        <v>99</v>
-      </c>
-      <c r="I53" t="s">
-        <v>38</v>
       </c>
       <c r="J53">
         <v>45</v>
       </c>
       <c r="K53" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3918,7 +3927,7 @@
         <v>60</v>
       </c>
       <c r="V53" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W53">
         <v>1</v>
@@ -3930,42 +3939,42 @@
         <v>5</v>
       </c>
       <c r="Z53" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
         <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H54" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I54" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J54">
         <v>40</v>
       </c>
       <c r="K54" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3977,7 +3986,7 @@
         <v>60</v>
       </c>
       <c r="V54" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W54">
         <v>1</v>
@@ -3989,42 +3998,42 @@
         <v>5</v>
       </c>
       <c r="Z54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
         <v>111</v>
       </c>
-      <c r="B55" t="s">
-        <v>116</v>
-      </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H55" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J55">
         <v>41</v>
       </c>
       <c r="K55" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -4036,7 +4045,7 @@
         <v>60</v>
       </c>
       <c r="V55" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W55">
         <v>1</v>
@@ -4048,42 +4057,42 @@
         <v>5</v>
       </c>
       <c r="Z55" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
+        <v>114</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56" t="s">
+        <v>30</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="H56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I56" t="s">
         <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>116</v>
-      </c>
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
-      <c r="D56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" t="s">
-        <v>34</v>
-      </c>
-      <c r="F56" t="s">
-        <v>35</v>
-      </c>
-      <c r="G56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H56" t="s">
-        <v>99</v>
-      </c>
-      <c r="I56" t="s">
-        <v>117</v>
       </c>
       <c r="J56">
         <v>42</v>
       </c>
       <c r="K56" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N56">
         <v>2</v>
@@ -4095,7 +4104,7 @@
         <v>60</v>
       </c>
       <c r="V56" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W56">
         <v>1</v>
@@ -4107,42 +4116,42 @@
         <v>5</v>
       </c>
       <c r="Z56" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J57">
         <v>43</v>
       </c>
       <c r="K57" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N57">
         <v>5</v>
@@ -4154,7 +4163,7 @@
         <v>60</v>
       </c>
       <c r="V57" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W57">
         <v>1</v>
@@ -4166,42 +4175,42 @@
         <v>5</v>
       </c>
       <c r="Z57" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J58">
         <v>44</v>
       </c>
       <c r="K58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -4213,7 +4222,7 @@
         <v>60</v>
       </c>
       <c r="V58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W58">
         <v>1</v>
@@ -4225,42 +4234,42 @@
         <v>5</v>
       </c>
       <c r="Z58" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I59" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="J59">
         <v>45</v>
       </c>
       <c r="K59" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -4272,7 +4281,7 @@
         <v>60</v>
       </c>
       <c r="V59" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="W59">
         <v>1</v>
@@ -4284,7 +4293,7 @@
         <v>5</v>
       </c>
       <c r="Z59" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
